--- a/_Vision.xlsx
+++ b/_Vision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\OpenMersyCore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C04C93-F0BA-4703-B90C-3115C172D497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DAD19D-0CBD-48E0-B5C1-D0D12F20C347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{22FA9045-CC1D-407F-9F07-C040254E10D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
   <si>
     <t>Requirements (this is the original requirement)</t>
   </si>
@@ -269,21 +269,12 @@
     <t>Remove payments from an invoice.</t>
   </si>
   <si>
-    <t>View the details of a payment.Post Cases</t>
-  </si>
-  <si>
-    <t>Add posts.List posts.</t>
-  </si>
-  <si>
     <t>Search posts by various filters and criteria.</t>
   </si>
   <si>
     <t>Edit and delete posts.</t>
   </si>
   <si>
-    <t>Approve public posts.</t>
-  </si>
-  <si>
     <t>Follow a doctor.</t>
   </si>
   <si>
@@ -342,6 +333,54 @@
   </si>
   <si>
     <t>__________________________________________</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Add posts.</t>
+  </si>
+  <si>
+    <t>List posts.</t>
+  </si>
+  <si>
+    <t>Admin Approve public posts.</t>
+  </si>
+  <si>
+    <t>View the details of a post</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Add Doctor</t>
+  </si>
+  <si>
+    <t>List doctors</t>
+  </si>
+  <si>
+    <t>Search doctors by various filters and criteria</t>
+  </si>
+  <si>
+    <t>Edir and delete doctors</t>
+  </si>
+  <si>
+    <t>View the details of a doctor</t>
+  </si>
+  <si>
+    <t>Delete chat</t>
+  </si>
+  <si>
+    <t>See details of chat</t>
+  </si>
+  <si>
+    <t>List messages</t>
   </si>
 </sst>
 </file>
@@ -763,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D044284-7045-4537-A634-8F7866BF0E36}">
-  <dimension ref="A2:E135"/>
+  <dimension ref="A2:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150:XFD150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -829,12 +868,12 @@
     </row>
     <row r="18" spans="1:5" ht="63" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -848,7 +887,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>10</v>
@@ -905,7 +944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>40</v>
       </c>
@@ -913,37 +952,43 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>40</v>
       </c>
@@ -951,22 +996,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>20</v>
       </c>
@@ -1070,263 +1115,333 @@
         <v>40</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B78" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B79" t="s">
-        <v>56</v>
+      <c r="A79" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
-        <v>57</v>
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B85" t="s">
-        <v>59</v>
+      <c r="A84" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>91</v>
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B92" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B93" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B94" t="s">
-        <v>65</v>
+      <c r="A93" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>92</v>
+      <c r="B96" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B103" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B110" t="s">
-        <v>73</v>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B113" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B114" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>103</v>
+      </c>
+      <c r="C120" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B115" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B116" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B117" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B118" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B122" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B123" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B124" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B125" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B126" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B130" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B131" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B132" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B135" t="s">
-        <v>101</v>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B146" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B150" s="11"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
